--- a/AutomationFramework/excel_logs/hardware_test_hw_component_test_hw_component_mfg_name_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_component_test_hw_component_mfg_name_logs.xlsx
@@ -518,7 +518,7 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:fd5ab098-4ab9-4e83-8af6-fa1ebaa22e15"
+&lt;rpc-reply message-id="urn:uuid:291a7908-9d4d-424b-a4a6-d54f64af7eb9"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
